--- a/Tables/2_3_3s_sig_chi_square_tests_contr_ear.xlsx
+++ b/Tables/2_3_3s_sig_chi_square_tests_contr_ear.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,46 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26.5323113860929</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
